--- a/solutions/record_comparison.xlsx
+++ b/solutions/record_comparison.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="458">
   <si>
     <t>fail</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>random dataset starts; tcrNet; 180s; 5G;</t>
+  </si>
+  <si>
+    <t>experiments ends;</t>
   </si>
   <si>
     <t>random dataset starts; tcrNet; 10min; 5G;</t>
@@ -8335,12 +8338,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="A446" sqref="A446:E446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -15888,11 +15891,17 @@
         <v>348</v>
       </c>
     </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A103:E103"/>
     <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A446:E446"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -15902,12 +15911,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J446"/>
+  <dimension ref="A1:J447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447:E447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5"/>
@@ -20563,7 +20572,7 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -24652,11 +24661,17 @@
         <v>0.0153798333333333</v>
       </c>
     </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A103:E103"/>
     <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A447:E447"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
